--- a/nr-add-datatypes/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/nr-add-datatypes/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T11:57:10+00:00</t>
+    <t>2025-07-24T11:58:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-datatypes/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/nr-add-datatypes/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T11:58:28+00:00</t>
+    <t>2025-07-24T11:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
